--- a/Weekly Tasks Folder/12.03.2016-18.03.2016/12.03.2016-18.03.2016 Арыскалиев Рамазан.xlsx
+++ b/Weekly Tasks Folder/12.03.2016-18.03.2016/12.03.2016-18.03.2016 Арыскалиев Рамазан.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OnlineCinemaProject\Weekly Tasks Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OnlineCinemaProject\Weekly Tasks Folder\12.03.2016-18.03.2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>План на 12.03.2016-18.03.2016</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>сделано</t>
+  </si>
+  <si>
+    <t>Личный кабинет пользователя</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -226,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -235,6 +244,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,11 +258,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,16 +586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -626,27 +637,27 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -654,85 +665,97 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
